--- a/Plan-QuanLyThuVien-QuocBinh-HoangHuan.xlsx
+++ b/Plan-QuanLyThuVien-QuocBinh-HoangHuan.xlsx
@@ -1102,11 +1102,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="196533632"/>
-        <c:axId val="196535424"/>
+        <c:axId val="215338368"/>
+        <c:axId val="215348352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196533632"/>
+        <c:axId val="215338368"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1116,7 +1116,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196535424"/>
+        <c:crossAx val="215348352"/>
         <c:crossesAt val="42544"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1124,7 +1124,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196535424"/>
+        <c:axId val="215348352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42600"/>
@@ -1136,7 +1136,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196533632"/>
+        <c:crossAx val="215338368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1513,7 +1513,7 @@
   <dimension ref="A2:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1779,8 +1779,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F19" s="31" t="s">
-        <v>70</v>
+      <c r="F19" s="32" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="21.95" customHeight="1">

--- a/Plan-QuanLyThuVien-QuocBinh-HoangHuan.xlsx
+++ b/Plan-QuanLyThuVien-QuocBinh-HoangHuan.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2.PTUD\QuanLyThuVien\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500"/>
   </bookViews>
@@ -13,7 +18,7 @@
     <sheet name="Communication Plan" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -275,7 +280,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="m/d;@"/>
@@ -560,6 +565,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF006600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -572,7 +582,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -692,7 +702,7 @@
                   <c:v>42641</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42643</c:v>
+                  <c:v>42642</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>42645</c:v>
@@ -727,7 +737,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
             </c:ext>
@@ -757,7 +767,7 @@
                 <a:srgbClr val="0000FF"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
               </c:ext>
@@ -772,7 +782,7 @@
                 <a:srgbClr val="0000FF"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000004-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
               </c:ext>
@@ -787,7 +797,7 @@
                 <a:srgbClr val="008000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000006-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
               </c:ext>
@@ -802,7 +812,7 @@
                 <a:srgbClr val="008000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000008-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
               </c:ext>
@@ -817,7 +827,7 @@
                 <a:srgbClr val="008000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000A-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
               </c:ext>
@@ -832,7 +842,7 @@
                 <a:srgbClr val="008000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000C-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
               </c:ext>
@@ -847,7 +857,7 @@
                 <a:srgbClr val="008000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000E-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
               </c:ext>
@@ -862,7 +872,7 @@
                 <a:srgbClr val="008000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000010-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
               </c:ext>
@@ -877,7 +887,7 @@
                 <a:srgbClr val="008000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000012-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
               </c:ext>
@@ -892,7 +902,7 @@
                 <a:srgbClr val="FF6600"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000014-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
               </c:ext>
@@ -907,7 +917,7 @@
                 <a:srgbClr val="FF6600"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000016-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
               </c:ext>
@@ -922,7 +932,7 @@
                 <a:srgbClr val="FF6600"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000018-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
               </c:ext>
@@ -937,7 +947,7 @@
                 <a:srgbClr val="FF6600"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001A-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
               </c:ext>
@@ -952,7 +962,7 @@
                 <a:srgbClr val="FF6600"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001C-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
               </c:ext>
@@ -967,7 +977,7 @@
                 <a:srgbClr val="660066"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001E-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
               </c:ext>
@@ -1086,7 +1096,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000001F-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
             </c:ext>
@@ -1512,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1728,17 +1738,17 @@
         <v>79</v>
       </c>
       <c r="C17" s="7">
-        <v>42643</v>
+        <v>42642</v>
       </c>
       <c r="D17" s="7">
-        <v>42645</v>
+        <v>42644</v>
       </c>
       <c r="E17" s="3">
         <f>D17-C17</f>
         <v>2</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>14</v>
+      <c r="F17" s="32" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21.95" customHeight="1">

--- a/Plan-QuanLyThuVien-QuocBinh-HoangHuan.xlsx
+++ b/Plan-QuanLyThuVien-QuocBinh-HoangHuan.xlsx
@@ -1523,7 +1523,7 @@
   <dimension ref="A2:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1768,8 +1768,8 @@
         <f>D18-C18</f>
         <v>2</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>14</v>
+      <c r="F18" s="31" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="21.95" customHeight="1">

--- a/Plan-QuanLyThuVien-QuocBinh-HoangHuan.xlsx
+++ b/Plan-QuanLyThuVien-QuocBinh-HoangHuan.xlsx
@@ -1102,11 +1102,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="215338368"/>
-        <c:axId val="215348352"/>
+        <c:axId val="136659328"/>
+        <c:axId val="136660864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="215338368"/>
+        <c:axId val="136659328"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1116,7 +1116,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215348352"/>
+        <c:crossAx val="136660864"/>
         <c:crossesAt val="42544"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1124,7 +1124,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215348352"/>
+        <c:axId val="136660864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42600"/>
@@ -1136,7 +1136,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215338368"/>
+        <c:crossAx val="136659328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1512,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1716,8 +1716,8 @@
         <f>D16-C16</f>
         <v>4</v>
       </c>
-      <c r="F16" s="31" t="s">
-        <v>70</v>
+      <c r="F16" s="32" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="21.95" customHeight="1">
@@ -1737,8 +1737,8 @@
         <f>D17-C17</f>
         <v>2</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>14</v>
+      <c r="F17" s="32" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21.95" customHeight="1">
@@ -1800,8 +1800,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>14</v>
+      <c r="F20" s="31" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="21.95" customHeight="1">

--- a/Plan-QuanLyThuVien-QuocBinh-HoangHuan.xlsx
+++ b/Plan-QuanLyThuVien-QuocBinh-HoangHuan.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2.PTUD\QuanLyThuVien\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500"/>
   </bookViews>
@@ -13,7 +18,7 @@
     <sheet name="Communication Plan" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -275,7 +280,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="m/d;@"/>
@@ -572,7 +577,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -704,7 +709,7 @@
                   <c:v>42648</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42642</c:v>
+                  <c:v>42649</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>42650</c:v>
@@ -727,7 +732,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
             </c:ext>
@@ -757,7 +762,7 @@
                 <a:srgbClr val="0000FF"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
               </c:ext>
@@ -772,7 +777,7 @@
                 <a:srgbClr val="0000FF"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000004-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
               </c:ext>
@@ -787,7 +792,7 @@
                 <a:srgbClr val="008000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000006-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
               </c:ext>
@@ -802,7 +807,7 @@
                 <a:srgbClr val="008000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000008-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
               </c:ext>
@@ -817,7 +822,7 @@
                 <a:srgbClr val="008000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000A-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
               </c:ext>
@@ -832,7 +837,7 @@
                 <a:srgbClr val="008000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000C-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
               </c:ext>
@@ -847,7 +852,7 @@
                 <a:srgbClr val="008000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000E-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
               </c:ext>
@@ -862,7 +867,7 @@
                 <a:srgbClr val="008000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000010-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
               </c:ext>
@@ -877,7 +882,7 @@
                 <a:srgbClr val="008000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000012-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
               </c:ext>
@@ -892,7 +897,7 @@
                 <a:srgbClr val="FF6600"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000014-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
               </c:ext>
@@ -907,7 +912,7 @@
                 <a:srgbClr val="FF6600"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000016-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
               </c:ext>
@@ -922,7 +927,7 @@
                 <a:srgbClr val="FF6600"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000018-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
               </c:ext>
@@ -937,7 +942,7 @@
                 <a:srgbClr val="FF6600"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001A-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
               </c:ext>
@@ -952,7 +957,7 @@
                 <a:srgbClr val="FF6600"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001C-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
               </c:ext>
@@ -967,7 +972,7 @@
                 <a:srgbClr val="660066"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001E-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
               </c:ext>
@@ -1054,7 +1059,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
@@ -1086,7 +1091,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000001F-8D9F-4A7B-AA73-B2B28EF7DCAB}"/>
             </c:ext>
@@ -1512,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1752,14 +1757,14 @@
         <v>42645</v>
       </c>
       <c r="D18" s="7">
-        <v>42647</v>
+        <v>42648</v>
       </c>
       <c r="E18" s="3">
         <f>D18-C18</f>
-        <v>2</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="21.95" customHeight="1">
@@ -1812,10 +1817,10 @@
         <v>79</v>
       </c>
       <c r="C21" s="7">
-        <v>42642</v>
+        <v>42649</v>
       </c>
       <c r="D21" s="7">
-        <v>42644</v>
+        <v>42651</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="0"/>

--- a/Plan-QuanLyThuVien-QuocBinh-HoangHuan.xlsx
+++ b/Plan-QuanLyThuVien-QuocBinh-HoangHuan.xlsx
@@ -649,22 +649,22 @@
                   <c:v>JDBC/Connect SQL DB</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UI Client</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Insert/Update/Query</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dev. Complete</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>UI Updates</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Test WebService on Sever</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UI Client</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Insert/Update/Query</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Testing</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Dev. Complete</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>UI Updates</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Last Testing</c:v>
@@ -709,19 +709,19 @@
                   <c:v>42648</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42649</c:v>
+                  <c:v>42650</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42650</c:v>
+                  <c:v>42652</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>42652</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42652</c:v>
+                  <c:v>42654</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42654</c:v>
+                  <c:v>42648</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>42655</c:v>
@@ -1008,22 +1008,22 @@
                   <c:v>JDBC/Connect SQL DB</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UI Client</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Insert/Update/Query</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dev. Complete</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>UI Updates</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Test WebService on Sever</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UI Client</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Insert/Update/Query</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Testing</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Dev. Complete</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>UI Updates</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Last Testing</c:v>
@@ -1059,28 +1059,28 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
@@ -1517,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1757,11 +1757,11 @@
         <v>42645</v>
       </c>
       <c r="D18" s="7">
-        <v>42648</v>
+        <v>42650</v>
       </c>
       <c r="E18" s="3">
         <f>D18-C18</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F18" s="31" t="s">
         <v>70</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="20" spans="1:6" ht="21.95" customHeight="1">
       <c r="A20" s="30" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>79</v>
@@ -1799,11 +1799,11 @@
         <v>42648</v>
       </c>
       <c r="D20" s="7">
-        <v>42648</v>
+        <v>42651</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D20-C20</f>
+        <v>3</v>
       </c>
       <c r="F20" s="31" t="s">
         <v>70</v>
@@ -1811,41 +1811,41 @@
     </row>
     <row r="21" spans="1:6" ht="21.95" customHeight="1">
       <c r="A21" s="30" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C21" s="7">
-        <v>42649</v>
+        <v>42650</v>
       </c>
       <c r="D21" s="7">
         <v>42651</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>70</v>
+        <f t="shared" ref="E21:E23" si="1">D21-C21</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A22" s="30" t="s">
-        <v>56</v>
+      <c r="A22" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C22" s="7">
-        <v>42650</v>
+        <v>42652</v>
       </c>
       <c r="D22" s="7">
-        <v>42651</v>
+        <v>42652</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" ref="E22:E24" si="1">D22-C22</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>14</v>
@@ -1853,20 +1853,20 @@
     </row>
     <row r="23" spans="1:6" ht="21.95" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C23" s="7">
         <v>42652</v>
       </c>
       <c r="D23" s="7">
-        <v>42652</v>
+        <v>42653</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>14</v>
@@ -1874,41 +1874,41 @@
     </row>
     <row r="24" spans="1:6" ht="21.95" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C24" s="7">
-        <v>42652</v>
+        <v>42654</v>
       </c>
       <c r="D24" s="7">
-        <v>42653</v>
+        <v>42656</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>D24-C24</f>
+        <v>2</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>66</v>
+      <c r="A25" s="30" t="s">
+        <v>69</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C25" s="7">
-        <v>42654</v>
+        <v>42648</v>
       </c>
       <c r="D25" s="7">
-        <v>42656</v>
+        <v>42648</v>
       </c>
       <c r="E25" s="3">
         <f>D25-C25</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>14</v>

--- a/Plan-QuanLyThuVien-QuocBinh-HoangHuan.xlsx
+++ b/Plan-QuanLyThuVien-QuocBinh-HoangHuan.xlsx
@@ -90,9 +90,6 @@
     <t>Overall Progress</t>
   </si>
   <si>
-    <t>Complete</t>
-  </si>
-  <si>
     <t>Project Deliverable</t>
   </si>
   <si>
@@ -275,6 +272,9 @@
   </si>
   <si>
     <t>Hoàng Huân</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -285,7 +285,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -322,13 +322,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF008000"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -466,17 +459,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -521,7 +511,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -546,10 +536,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -643,10 +633,10 @@
                   <c:v>Sign-in/Sign-up function</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>JDBC/Connect SQL DB</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Search by Name, Address</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>JDBC/Connect SQL DB</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>UI Client</c:v>
@@ -700,10 +690,10 @@
                   <c:v>42643</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>42641</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>42645</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42641</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>42648</c:v>
@@ -1002,10 +992,10 @@
                   <c:v>Sign-in/Sign-up function</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>JDBC/Connect SQL DB</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Search by Name, Address</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>JDBC/Connect SQL DB</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>UI Client</c:v>
@@ -1059,10 +1049,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3</c:v>
@@ -1517,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1534,8 +1524,8 @@
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>74</v>
+      <c r="B2" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1543,23 +1533,23 @@
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>75</v>
+      <c r="B3" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="18.75">
       <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>64</v>
+        <v>20</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="18.75">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1572,7 +1562,7 @@
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>42634</v>
       </c>
       <c r="C7" s="1"/>
@@ -1581,7 +1571,7 @@
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>42657</v>
       </c>
       <c r="C8" s="1"/>
@@ -1590,7 +1580,7 @@
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>0.25</v>
       </c>
       <c r="C9" s="1"/>
@@ -1601,22 +1591,22 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1625,20 +1615,20 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="7">
+        <v>66</v>
+      </c>
+      <c r="C12" s="6">
         <v>42632</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>42633</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" ref="E12:E21" si="0">D12-C12</f>
+        <f t="shared" ref="E12:E19" si="0">D12-C12</f>
         <v>1</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>20</v>
+      <c r="F12" s="31" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21.95" customHeight="1">
@@ -1646,311 +1636,311 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="7">
+        <v>66</v>
+      </c>
+      <c r="C13" s="6">
         <v>42632</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>42633</v>
       </c>
       <c r="E13" s="3">
         <f>D13-C13</f>
         <v>1</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>20</v>
+      <c r="F13" s="31" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="7">
+        <v>66</v>
+      </c>
+      <c r="C14" s="6">
         <v>42633</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>42639</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>20</v>
+      <c r="F14" s="31" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>71</v>
+      <c r="A15" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="7">
+        <v>75</v>
+      </c>
+      <c r="C15" s="6">
         <v>42640</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>42641</v>
       </c>
       <c r="E15" s="3">
         <f>D15-C15</f>
         <v>1</v>
       </c>
-      <c r="F15" s="32" t="s">
-        <v>20</v>
+      <c r="F15" s="31" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>77</v>
+      <c r="A16" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="7">
+        <v>75</v>
+      </c>
+      <c r="C16" s="6">
         <v>42641</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>42645</v>
       </c>
       <c r="E16" s="3">
         <f>D16-C16</f>
         <v>4</v>
       </c>
-      <c r="F16" s="32" t="s">
-        <v>20</v>
+      <c r="F16" s="31" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>42643</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>42645</v>
       </c>
       <c r="E17" s="3">
         <f>D17-C17</f>
         <v>2</v>
       </c>
-      <c r="F17" s="32" t="s">
-        <v>20</v>
+      <c r="F17" s="31" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>73</v>
+      <c r="A18" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="7">
-        <v>42645</v>
-      </c>
-      <c r="D18" s="7">
-        <v>42650</v>
+        <v>75</v>
+      </c>
+      <c r="C18" s="6">
+        <v>42641</v>
+      </c>
+      <c r="D18" s="6">
+        <v>42644</v>
       </c>
       <c r="E18" s="3">
         <f>D18-C18</f>
+        <v>3</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="21.95" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="6">
+        <v>42645</v>
+      </c>
+      <c r="D19" s="6">
+        <v>42650</v>
+      </c>
+      <c r="E19" s="3">
+        <f>D19-C19</f>
         <v>5</v>
       </c>
-      <c r="F18" s="31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="7">
-        <v>42641</v>
-      </c>
-      <c r="D19" s="7">
-        <v>42644</v>
-      </c>
-      <c r="E19" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>20</v>
+      <c r="F19" s="30" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="7">
+        <v>78</v>
+      </c>
+      <c r="C20" s="6">
         <v>42648</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>42651</v>
       </c>
       <c r="E20" s="3">
         <f>D20-C20</f>
         <v>3</v>
       </c>
-      <c r="F20" s="31" t="s">
-        <v>70</v>
+      <c r="F20" s="30" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A21" s="30" t="s">
-        <v>56</v>
+      <c r="A21" s="29" t="s">
+        <v>55</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="7">
+        <v>75</v>
+      </c>
+      <c r="C21" s="6">
         <v>42650</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>42651</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" ref="E21:E23" si="1">D21-C21</f>
         <v>1</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="7">
+        <v>78</v>
+      </c>
+      <c r="C22" s="6">
         <v>42652</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>42652</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="7">
+        <v>66</v>
+      </c>
+      <c r="C23" s="6">
         <v>42652</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>42653</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>66</v>
+      <c r="A24" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="7">
+        <v>78</v>
+      </c>
+      <c r="C24" s="6">
         <v>42654</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>42656</v>
       </c>
       <c r="E24" s="3">
         <f>D24-C24</f>
         <v>2</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A25" s="30" t="s">
-        <v>69</v>
+      <c r="A25" s="29" t="s">
+        <v>68</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="7">
+        <v>78</v>
+      </c>
+      <c r="C25" s="6">
         <v>42648</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>42648</v>
       </c>
       <c r="E25" s="3">
         <f>D25-C25</f>
         <v>0</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>65</v>
+      <c r="A26" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="7">
+        <v>66</v>
+      </c>
+      <c r="C26" s="6">
         <v>42655</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>42656</v>
       </c>
       <c r="E26" s="3">
         <f>D26-C26</f>
         <v>1</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="27">
+      <c r="B27" s="8"/>
+      <c r="C27" s="26">
         <v>42657</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="26">
         <v>42657</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <f>D27-C27</f>
         <v>0</v>
       </c>
-      <c r="F27" s="10"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" ht="29.1" customHeight="1"/>
   </sheetData>
@@ -1982,87 +1972,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75">
+      <c r="A3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75">
-      <c r="A3" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="4" spans="1:4" ht="78.75">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="63">
+      <c r="A5" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="B5" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="63">
-      <c r="A5" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="19"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:4" ht="42.95" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" ht="42.95" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:4" ht="42.95" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" ht="42.95" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" ht="42.95" customHeight="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2098,129 +2088,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75">
+      <c r="A3" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75">
-      <c r="A3" s="21" t="s">
+      <c r="B3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="42.95" customHeight="1">
+      <c r="A4" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A4" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="23">
+      <c r="B4" s="22">
         <v>0.5</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>2800</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <v>3500</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <v>3600</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <v>0.15</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2252,168 +2242,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75">
+      <c r="A3" s="15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.75">
-      <c r="A3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="16" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="42.95" customHeight="1">
+      <c r="A4" s="25" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="B4" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="42.95" customHeight="1">
+      <c r="A5" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="26" t="s">
+      <c r="B5" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A5" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="26" t="s">
+      <c r="E5" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="G5" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="26" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Plan-QuanLyThuVien-QuocBinh-HoangHuan.xlsx
+++ b/Plan-QuanLyThuVien-QuocBinh-HoangHuan.xlsx
@@ -645,16 +645,16 @@
                   <c:v>Insert/Update/Query</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Test WebService on Sever</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Testing</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>Dev. Complete</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>UI Updates</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Test WebService on Sever</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Last Testing</c:v>
@@ -702,16 +702,16 @@
                   <c:v>42650</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42652</c:v>
+                  <c:v>42651</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>42652</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>42652</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>42654</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42648</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>42655</c:v>
@@ -1004,16 +1004,16 @@
                   <c:v>Insert/Update/Query</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Test WebService on Sever</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Testing</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>Dev. Complete</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>UI Updates</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Test WebService on Sever</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Last Testing</c:v>
@@ -1061,16 +1061,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
@@ -1507,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1821,21 +1821,21 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>10</v>
+      <c r="A22" s="29" t="s">
+        <v>68</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C22" s="6">
-        <v>42652</v>
+        <v>42651</v>
       </c>
       <c r="D22" s="6">
         <v>42652</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>D22-C22</f>
+        <v>1</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>14</v>
@@ -1843,20 +1843,20 @@
     </row>
     <row r="23" spans="1:6" ht="21.95" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C23" s="6">
         <v>42652</v>
       </c>
       <c r="D23" s="6">
-        <v>42653</v>
+        <v>42652</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>D23-C23</f>
+        <v>0</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>14</v>
@@ -1864,41 +1864,41 @@
     </row>
     <row r="24" spans="1:6" ht="21.95" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C24" s="6">
-        <v>42654</v>
+        <v>42652</v>
       </c>
       <c r="D24" s="6">
-        <v>42656</v>
+        <v>42653</v>
       </c>
       <c r="E24" s="3">
         <f>D24-C24</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A25" s="29" t="s">
-        <v>68</v>
+      <c r="A25" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C25" s="6">
-        <v>42648</v>
+        <v>42654</v>
       </c>
       <c r="D25" s="6">
-        <v>42648</v>
+        <v>42656</v>
       </c>
       <c r="E25" s="3">
         <f>D25-C25</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>14</v>
